--- a/Code/Results/Cases/Case_9_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7861224895333407</v>
+        <v>0.7539315321465097</v>
       </c>
       <c r="C2">
-        <v>0.125512654854731</v>
+        <v>0.1306541831506678</v>
       </c>
       <c r="D2">
-        <v>0.1795646641712949</v>
+        <v>0.1853385840464625</v>
       </c>
       <c r="E2">
-        <v>0.1230102124592456</v>
+        <v>0.1248641510528365</v>
       </c>
       <c r="F2">
-        <v>0.6691236541696526</v>
+        <v>0.6415053738453125</v>
       </c>
       <c r="G2">
-        <v>0.3783301811443849</v>
+        <v>0.3388070808739343</v>
       </c>
       <c r="H2">
-        <v>0.001897274114530223</v>
+        <v>0.001665934553843451</v>
       </c>
       <c r="I2">
-        <v>0.001699144062712765</v>
+        <v>0.001217157122188617</v>
       </c>
       <c r="J2">
-        <v>0.3387073658397739</v>
+        <v>0.3510135204563767</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1220868916752238</v>
+        <v>0.1530504140743716</v>
       </c>
       <c r="M2">
-        <v>0.8023245469440496</v>
+        <v>0.08133353797766674</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1222634196869592</v>
       </c>
       <c r="O2">
-        <v>0.3097065668426282</v>
+        <v>0.8059850412969354</v>
       </c>
       <c r="P2">
-        <v>0.8983378158920488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.458252935026394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3118482610693363</v>
+      </c>
+      <c r="R2">
+        <v>0.8770319015934653</v>
+      </c>
+      <c r="S2">
+        <v>1.376634559382836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6844513833285077</v>
+        <v>0.6601718770471905</v>
       </c>
       <c r="C3">
-        <v>0.114523446537703</v>
+        <v>0.1154042258272199</v>
       </c>
       <c r="D3">
-        <v>0.1608231602519652</v>
+        <v>0.1658422145136882</v>
       </c>
       <c r="E3">
-        <v>0.1121032728881488</v>
+        <v>0.1139502961732184</v>
       </c>
       <c r="F3">
-        <v>0.6459048137970385</v>
+        <v>0.6212923094893767</v>
       </c>
       <c r="G3">
-        <v>0.3682576572455787</v>
+        <v>0.3321429011039001</v>
       </c>
       <c r="H3">
-        <v>0.003050229332336674</v>
+        <v>0.002706365938120237</v>
       </c>
       <c r="I3">
-        <v>0.002510005604361876</v>
+        <v>0.001747097417799992</v>
       </c>
       <c r="J3">
-        <v>0.337690853023652</v>
+        <v>0.348660100054488</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1128080623881331</v>
+        <v>0.1576385064589125</v>
       </c>
       <c r="M3">
-        <v>0.7004103389915883</v>
+        <v>0.08017603010716456</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1133237070083979</v>
       </c>
       <c r="O3">
-        <v>0.2709464252502194</v>
+        <v>0.7037644400832193</v>
       </c>
       <c r="P3">
-        <v>0.9248517599519879</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.434518107651385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2727428675264818</v>
+      </c>
+      <c r="R3">
+        <v>0.9006263385626507</v>
+      </c>
+      <c r="S3">
+        <v>1.359870510350504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6216539960169882</v>
+        <v>0.6020751419728754</v>
       </c>
       <c r="C4">
-        <v>0.1078674616309812</v>
+        <v>0.106227512992902</v>
       </c>
       <c r="D4">
-        <v>0.1493691612036088</v>
+        <v>0.1539444735301174</v>
       </c>
       <c r="E4">
-        <v>0.1054035630270427</v>
+        <v>0.1072507939260383</v>
       </c>
       <c r="F4">
-        <v>0.632038252148071</v>
+        <v>0.6091808583845548</v>
       </c>
       <c r="G4">
-        <v>0.3623623702605983</v>
+        <v>0.3283420497679828</v>
       </c>
       <c r="H4">
-        <v>0.003928271168549324</v>
+        <v>0.003501775794947037</v>
       </c>
       <c r="I4">
-        <v>0.003165050523918911</v>
+        <v>0.002205207916615048</v>
       </c>
       <c r="J4">
-        <v>0.3372763984111913</v>
+        <v>0.3472784401510296</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1070732986339493</v>
+        <v>0.1605638321542635</v>
       </c>
       <c r="M4">
-        <v>0.6377250006325283</v>
+        <v>0.07995051938471853</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1077957292972869</v>
       </c>
       <c r="O4">
-        <v>0.2471462899072385</v>
+        <v>0.6408762721295886</v>
       </c>
       <c r="P4">
-        <v>0.9417096943287309</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.420990153302967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2487303442564581</v>
+      </c>
+      <c r="R4">
+        <v>0.9157121809597069</v>
+      </c>
+      <c r="S4">
+        <v>1.350359257825545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5952910278295747</v>
+        <v>0.5776039880916812</v>
       </c>
       <c r="C5">
-        <v>0.1054731974052174</v>
+        <v>0.1028589859938052</v>
       </c>
       <c r="D5">
-        <v>0.1447924246729571</v>
+        <v>0.1491925792082327</v>
       </c>
       <c r="E5">
-        <v>0.1026832186065469</v>
+        <v>0.1045318165646556</v>
       </c>
       <c r="F5">
-        <v>0.6261079461664423</v>
+        <v>0.6039517799605107</v>
       </c>
       <c r="G5">
-        <v>0.3597137429471644</v>
+        <v>0.3265618652361084</v>
       </c>
       <c r="H5">
-        <v>0.00432890149532561</v>
+        <v>0.003865321605411698</v>
       </c>
       <c r="I5">
-        <v>0.003545398537759148</v>
+        <v>0.002511240079649646</v>
       </c>
       <c r="J5">
-        <v>0.3369947282088006</v>
+        <v>0.3465642291149962</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.104706801281246</v>
+        <v>0.1616404506362912</v>
       </c>
       <c r="M5">
-        <v>0.6121844934228164</v>
+        <v>0.07991945654581478</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1055134461102938</v>
       </c>
       <c r="O5">
-        <v>0.2374748160476408</v>
+        <v>0.6152502464407235</v>
       </c>
       <c r="P5">
-        <v>0.9486987256215684</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.414717228188877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2389723849674503</v>
+      </c>
+      <c r="R5">
+        <v>0.9220073443030437</v>
+      </c>
+      <c r="S5">
+        <v>1.345690434474648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5900769328096374</v>
+        <v>0.572720273491143</v>
       </c>
       <c r="C6">
-        <v>0.1054418139571212</v>
+        <v>0.1027035428610645</v>
       </c>
       <c r="D6">
-        <v>0.144129330077746</v>
+        <v>0.148501550051364</v>
       </c>
       <c r="E6">
-        <v>0.1022450970452198</v>
+        <v>0.104094138504994</v>
       </c>
       <c r="F6">
-        <v>0.6246713537005917</v>
+        <v>0.6026405419122511</v>
       </c>
       <c r="G6">
-        <v>0.3588916274230201</v>
+        <v>0.325902319865456</v>
       </c>
       <c r="H6">
-        <v>0.004399883211237965</v>
+        <v>0.003929769950011097</v>
       </c>
       <c r="I6">
-        <v>0.003710237776122227</v>
+        <v>0.002679382974401179</v>
       </c>
       <c r="J6">
-        <v>0.3367501428732993</v>
+        <v>0.3462427744280347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1042893487241798</v>
+        <v>0.1616473661099036</v>
       </c>
       <c r="M6">
-        <v>0.6079843309344568</v>
+        <v>0.07984672661079095</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1051102558361094</v>
       </c>
       <c r="O6">
-        <v>0.2359042576320931</v>
+        <v>0.6110359820060722</v>
       </c>
       <c r="P6">
-        <v>0.9498412109612335</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.412450551177102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.237387466064984</v>
+      </c>
+      <c r="R6">
+        <v>0.9230634169926013</v>
+      </c>
+      <c r="S6">
+        <v>1.343726031283424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6190216784702329</v>
+        <v>0.5991318230457807</v>
       </c>
       <c r="C7">
-        <v>0.108833618756961</v>
+        <v>0.1071211633845195</v>
       </c>
       <c r="D7">
-        <v>0.1495704013326247</v>
+        <v>0.1543257539452298</v>
       </c>
       <c r="E7">
-        <v>0.1054044824689484</v>
+        <v>0.1072916896453542</v>
       </c>
       <c r="F7">
-        <v>0.6307093855063073</v>
+        <v>0.6071637416823421</v>
       </c>
       <c r="G7">
-        <v>0.3612715101121537</v>
+        <v>0.3296532196885806</v>
       </c>
       <c r="H7">
-        <v>0.003938582966134196</v>
+        <v>0.003514554610724474</v>
       </c>
       <c r="I7">
-        <v>0.003425901166043133</v>
+        <v>0.002509433803369099</v>
       </c>
       <c r="J7">
-        <v>0.3367248399285714</v>
+        <v>0.3432607293956309</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1069764171998386</v>
+        <v>0.1599601313546088</v>
       </c>
       <c r="M7">
-        <v>0.6374974933386142</v>
+        <v>0.07965764742412951</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1076795449337524</v>
       </c>
       <c r="O7">
-        <v>0.2471129733618653</v>
+        <v>0.640053493591779</v>
       </c>
       <c r="P7">
-        <v>0.9417432201515386</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.417521082270227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.248608516505854</v>
+      </c>
+      <c r="R7">
+        <v>0.9158453369891522</v>
+      </c>
+      <c r="S7">
+        <v>1.345064214060471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7480999731689053</v>
+        <v>0.7174466119581382</v>
       </c>
       <c r="C8">
-        <v>0.1230391453653539</v>
+        <v>0.1262976374442957</v>
       </c>
       <c r="D8">
-        <v>0.1734408950484152</v>
+        <v>0.1795590224598413</v>
       </c>
       <c r="E8">
-        <v>0.1193004271088718</v>
+        <v>0.1212861397856528</v>
       </c>
       <c r="F8">
-        <v>0.6593874631983425</v>
+        <v>0.630464500968408</v>
       </c>
       <c r="G8">
-        <v>0.3734036860479435</v>
+        <v>0.3429636630957305</v>
       </c>
       <c r="H8">
-        <v>0.002263326403351029</v>
+        <v>0.002003549376317415</v>
       </c>
       <c r="I8">
-        <v>0.00225293410782168</v>
+        <v>0.001738222206666862</v>
       </c>
       <c r="J8">
-        <v>0.3375934202273854</v>
+        <v>0.3382586301201727</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1188098281491179</v>
+        <v>0.1535989720274422</v>
       </c>
       <c r="M8">
-        <v>0.767359924980866</v>
+        <v>0.08020260394904888</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1190368041673366</v>
       </c>
       <c r="O8">
-        <v>0.2964702171269309</v>
+        <v>0.7689231264672856</v>
       </c>
       <c r="P8">
-        <v>0.9073340330578716</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.445390002750656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2981994676919655</v>
+      </c>
+      <c r="R8">
+        <v>0.8853174698712323</v>
+      </c>
+      <c r="S8">
+        <v>1.359939733551712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.002431186238482</v>
+        <v>0.9506895881980313</v>
       </c>
       <c r="C9">
-        <v>0.149892955106921</v>
+        <v>0.1640478616951384</v>
       </c>
       <c r="D9">
-        <v>0.2202512844121713</v>
+        <v>0.2285368303200102</v>
       </c>
       <c r="E9">
-        <v>0.1464890316141236</v>
+        <v>0.1485560816668077</v>
       </c>
       <c r="F9">
-        <v>0.7211166288548583</v>
+        <v>0.6834863464127494</v>
       </c>
       <c r="G9">
-        <v>0.4015087870983862</v>
+        <v>0.3647050066856465</v>
       </c>
       <c r="H9">
-        <v>0.0003970819048271235</v>
+        <v>0.0003327045610785895</v>
       </c>
       <c r="I9">
-        <v>0.0008793289057367204</v>
+        <v>0.00086648402781897</v>
       </c>
       <c r="J9">
-        <v>0.3419876207075703</v>
+        <v>0.3421137967752372</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1418597159775317</v>
+        <v>0.1432805667834369</v>
       </c>
       <c r="M9">
-        <v>1.02110041956783</v>
+        <v>0.08587367031023696</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.141213480669073</v>
       </c>
       <c r="O9">
-        <v>0.3931475896215773</v>
+        <v>1.022727689552511</v>
       </c>
       <c r="P9">
-        <v>0.8446014421965469</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.514766472330905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3956405493150186</v>
+      </c>
+      <c r="R9">
+        <v>0.8300791410746449</v>
+      </c>
+      <c r="S9">
+        <v>1.408556373207958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.184466152670211</v>
+        <v>1.114796981718825</v>
       </c>
       <c r="C10">
-        <v>0.1702233310615355</v>
+        <v>0.1915685999748291</v>
       </c>
       <c r="D10">
-        <v>0.2495263494541575</v>
+        <v>0.260401684844922</v>
       </c>
       <c r="E10">
-        <v>0.1600436224891375</v>
+        <v>0.1623779446400562</v>
       </c>
       <c r="F10">
-        <v>0.7586470651335375</v>
+        <v>0.7106756464019597</v>
       </c>
       <c r="G10">
-        <v>0.4185434566833095</v>
+        <v>0.3917289920755849</v>
       </c>
       <c r="H10">
-        <v>0.0001922845406383544</v>
+        <v>0.0001894675262223977</v>
       </c>
       <c r="I10">
-        <v>0.0008962822010500915</v>
+        <v>0.001126728688123357</v>
       </c>
       <c r="J10">
-        <v>0.3436841576086778</v>
+        <v>0.324743236671992</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1509814694138853</v>
+        <v>0.1347479110826999</v>
       </c>
       <c r="M10">
-        <v>1.204991081613457</v>
+        <v>0.09069875366740732</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1496439988030218</v>
       </c>
       <c r="O10">
-        <v>0.4551229068371256</v>
+        <v>1.202900383111313</v>
       </c>
       <c r="P10">
-        <v>0.8022816016711278</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.554831378733297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4575723578210571</v>
+      </c>
+      <c r="R10">
+        <v>0.7946029711318658</v>
+      </c>
+      <c r="S10">
+        <v>1.422668276191715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.245995978125563</v>
+        <v>1.170210762973426</v>
       </c>
       <c r="C11">
-        <v>0.1767648052107944</v>
+        <v>0.1965977956850082</v>
       </c>
       <c r="D11">
-        <v>0.2163232369450299</v>
+        <v>0.2283987614859626</v>
       </c>
       <c r="E11">
-        <v>0.1156731920391145</v>
+        <v>0.1179328429960336</v>
       </c>
       <c r="F11">
-        <v>0.6940389153318662</v>
+        <v>0.6410432345153865</v>
       </c>
       <c r="G11">
-        <v>0.3843503018999428</v>
+        <v>0.3893341972302125</v>
       </c>
       <c r="H11">
-        <v>0.01876477621135564</v>
+        <v>0.01876257752403276</v>
       </c>
       <c r="I11">
-        <v>0.001472541346377199</v>
+        <v>0.001839940154112263</v>
       </c>
       <c r="J11">
-        <v>0.3233793146950887</v>
+        <v>0.2755086993571112</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09997403364362967</v>
+        <v>0.1237911406017513</v>
       </c>
       <c r="M11">
-        <v>1.267653085080013</v>
+        <v>0.08421307827998703</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09881787567759304</v>
       </c>
       <c r="O11">
-        <v>0.4054067594008757</v>
+        <v>1.257295194376468</v>
       </c>
       <c r="P11">
-        <v>0.7929052124095826</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.439974759930763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4065602377713091</v>
+      </c>
+      <c r="R11">
+        <v>0.7952174239509517</v>
+      </c>
+      <c r="S11">
+        <v>1.294181764856049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.262970220547402</v>
+        <v>1.187298315437374</v>
       </c>
       <c r="C12">
-        <v>0.1762948863832605</v>
+        <v>0.1936613860327583</v>
       </c>
       <c r="D12">
-        <v>0.1839757240372819</v>
+        <v>0.1956789823854734</v>
       </c>
       <c r="E12">
-        <v>0.08301354381732651</v>
+        <v>0.08491316515468839</v>
       </c>
       <c r="F12">
-        <v>0.635370236209269</v>
+        <v>0.583279702048749</v>
       </c>
       <c r="G12">
-        <v>0.3542327042874831</v>
+        <v>0.373691832167566</v>
       </c>
       <c r="H12">
-        <v>0.05745881000155606</v>
+        <v>0.05745661317761375</v>
       </c>
       <c r="I12">
-        <v>0.001486070773581538</v>
+        <v>0.001855456018263091</v>
       </c>
       <c r="J12">
-        <v>0.3069226232367228</v>
+        <v>0.2525357949555946</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07050290241269686</v>
+        <v>0.117613779938786</v>
       </c>
       <c r="M12">
-        <v>1.281082760491188</v>
+        <v>0.07860158937754136</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06971433656429404</v>
       </c>
       <c r="O12">
-        <v>0.3530998825335701</v>
+        <v>1.2667407524346</v>
       </c>
       <c r="P12">
-        <v>0.79739504783333</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.341714631660665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3535868005217395</v>
+      </c>
+      <c r="R12">
+        <v>0.8063715348690934</v>
+      </c>
+      <c r="S12">
+        <v>1.197576690923341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.242862508157287</v>
+        <v>1.173380508348401</v>
       </c>
       <c r="C13">
-        <v>0.1720053741847494</v>
+        <v>0.1867127671809499</v>
       </c>
       <c r="D13">
-        <v>0.1509911261723573</v>
+        <v>0.160919970799668</v>
       </c>
       <c r="E13">
-        <v>0.05758257010789336</v>
+        <v>0.05894169326823651</v>
       </c>
       <c r="F13">
-        <v>0.5759550187704008</v>
+        <v>0.5303219659708844</v>
       </c>
       <c r="G13">
-        <v>0.323808524113808</v>
+        <v>0.3398370020864618</v>
       </c>
       <c r="H13">
-        <v>0.1132537400144855</v>
+        <v>0.1132471348254427</v>
       </c>
       <c r="I13">
-        <v>0.001413711401077045</v>
+        <v>0.001763502937852657</v>
       </c>
       <c r="J13">
-        <v>0.2915678350215387</v>
+        <v>0.2465236627176672</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.05564091520942016</v>
+        <v>0.1139078797221416</v>
       </c>
       <c r="M13">
-        <v>1.257457969434881</v>
+        <v>0.07317834918065991</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05534212054361376</v>
       </c>
       <c r="O13">
-        <v>0.296272262182427</v>
+        <v>1.243881889359216</v>
       </c>
       <c r="P13">
-        <v>0.8121157534033188</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.245035681831098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2966532324704687</v>
+      </c>
+      <c r="R13">
+        <v>0.8240060207351405</v>
+      </c>
+      <c r="S13">
+        <v>1.117261395585885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.211336440983871</v>
+        <v>1.148880471097129</v>
       </c>
       <c r="C14">
-        <v>0.1676053987395392</v>
+        <v>0.1803864430901143</v>
       </c>
       <c r="D14">
-        <v>0.1281893090043553</v>
+        <v>0.1364216290207594</v>
       </c>
       <c r="E14">
-        <v>0.04419511737902937</v>
+        <v>0.0451758808373377</v>
       </c>
       <c r="F14">
-        <v>0.5343262865979952</v>
+        <v>0.4951898363500504</v>
       </c>
       <c r="G14">
-        <v>0.3023877189728381</v>
+        <v>0.3093273787442001</v>
       </c>
       <c r="H14">
-        <v>0.1626517987967731</v>
+        <v>0.1626369045738443</v>
       </c>
       <c r="I14">
-        <v>0.001416529330661831</v>
+        <v>0.001754621937285705</v>
       </c>
       <c r="J14">
-        <v>0.2812929771991293</v>
+        <v>0.2482535002580057</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.05386164741912047</v>
+        <v>0.1122021614716449</v>
       </c>
       <c r="M14">
-        <v>1.224244215525971</v>
+        <v>0.0694773495652985</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05392066116911831</v>
       </c>
       <c r="O14">
-        <v>0.2552534217575335</v>
+        <v>1.213254004107938</v>
       </c>
       <c r="P14">
-        <v>0.8273785862568701</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.178054124608082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2557526845667901</v>
+      </c>
+      <c r="R14">
+        <v>0.8391430086653031</v>
+      </c>
+      <c r="S14">
+        <v>1.067133198097665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.194866584537948</v>
+        <v>1.135322296900881</v>
       </c>
       <c r="C15">
-        <v>0.1661368637406326</v>
+        <v>0.1784223697957401</v>
       </c>
       <c r="D15">
-        <v>0.1223278340320206</v>
+        <v>0.1299536849475231</v>
       </c>
       <c r="E15">
-        <v>0.04149928549766368</v>
+        <v>0.04239067929746376</v>
       </c>
       <c r="F15">
-        <v>0.5234884340659747</v>
+        <v>0.4868034306984867</v>
       </c>
       <c r="G15">
-        <v>0.2967226486847636</v>
+        <v>0.29879301493132</v>
       </c>
       <c r="H15">
-        <v>0.17518636904191</v>
+        <v>0.1751664627505107</v>
       </c>
       <c r="I15">
-        <v>0.00152033047102762</v>
+        <v>0.001870716763773039</v>
       </c>
       <c r="J15">
-        <v>0.2788431174955832</v>
+        <v>0.2512131400385336</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.05451630001195973</v>
+        <v>0.1120956293157356</v>
       </c>
       <c r="M15">
-        <v>1.208386829752953</v>
+        <v>0.06851524689544775</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05467621598973338</v>
       </c>
       <c r="O15">
-        <v>0.2440551238132613</v>
+        <v>1.198896700596322</v>
       </c>
       <c r="P15">
-        <v>0.8329415746942672</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.160883691917547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2446572967951042</v>
+      </c>
+      <c r="R15">
+        <v>0.8437996576577049</v>
+      </c>
+      <c r="S15">
+        <v>1.056450945263833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.119520195109345</v>
+        <v>1.07018611817989</v>
       </c>
       <c r="C16">
-        <v>0.1588964521905467</v>
+        <v>0.1703114834081703</v>
       </c>
       <c r="D16">
-        <v>0.1174141486646363</v>
+        <v>0.1232804924592301</v>
       </c>
       <c r="E16">
-        <v>0.04149843132498621</v>
+        <v>0.04235777984108768</v>
       </c>
       <c r="F16">
-        <v>0.5193274520397537</v>
+        <v>0.4901704111071226</v>
       </c>
       <c r="G16">
-        <v>0.2950775792368958</v>
+        <v>0.2755338009898338</v>
       </c>
       <c r="H16">
-        <v>0.1625884642549238</v>
+        <v>0.1625351342813133</v>
       </c>
       <c r="I16">
-        <v>0.00161354168409833</v>
+        <v>0.001912907292547672</v>
       </c>
       <c r="J16">
-        <v>0.2808448874760074</v>
+        <v>0.2762415850497604</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05388903837099157</v>
+        <v>0.1157537785228104</v>
       </c>
       <c r="M16">
-        <v>1.134442717893137</v>
+        <v>0.06859652690392615</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05422293018259694</v>
       </c>
       <c r="O16">
-        <v>0.2306334161967101</v>
+        <v>1.132081178828599</v>
       </c>
       <c r="P16">
-        <v>0.845993480522111</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.161421549156728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2318584007262849</v>
+      </c>
+      <c r="R16">
+        <v>0.8494854719013389</v>
+      </c>
+      <c r="S16">
+        <v>1.077201221249595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.078444309857503</v>
+        <v>1.032517293793944</v>
       </c>
       <c r="C17">
-        <v>0.1557350472664041</v>
+        <v>0.1672490511718649</v>
       </c>
       <c r="D17">
-        <v>0.1254264657463864</v>
+        <v>0.1308941136524027</v>
       </c>
       <c r="E17">
-        <v>0.04781971848603739</v>
+        <v>0.0487897502228396</v>
       </c>
       <c r="F17">
-        <v>0.5379627832071634</v>
+        <v>0.5107435827152926</v>
       </c>
       <c r="G17">
-        <v>0.305095500514696</v>
+        <v>0.2761306667561527</v>
       </c>
       <c r="H17">
-        <v>0.1248932785931203</v>
+        <v>0.1248171349757143</v>
       </c>
       <c r="I17">
-        <v>0.001720774730615382</v>
+        <v>0.001985203414982983</v>
       </c>
       <c r="J17">
-        <v>0.2878274849609923</v>
+        <v>0.2936303505420241</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05294647906365357</v>
+        <v>0.1196593149342515</v>
       </c>
       <c r="M17">
-        <v>1.095447719536566</v>
+        <v>0.07041549084196141</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05325577992958008</v>
       </c>
       <c r="O17">
-        <v>0.2415835363263099</v>
+        <v>1.096167583591182</v>
       </c>
       <c r="P17">
-        <v>0.8480545410091835</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.197182175402077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2431691431129259</v>
+      </c>
+      <c r="R17">
+        <v>0.8471838642661993</v>
+      </c>
+      <c r="S17">
+        <v>1.118260561877022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.064001641582678</v>
+        <v>1.017025917839732</v>
       </c>
       <c r="C18">
-        <v>0.1548421897292656</v>
+        <v>0.1675548803971623</v>
       </c>
       <c r="D18">
-        <v>0.1465755596140639</v>
+        <v>0.1524420760056699</v>
       </c>
       <c r="E18">
-        <v>0.06415294612440192</v>
+        <v>0.06533365366620103</v>
       </c>
       <c r="F18">
-        <v>0.5803248431321464</v>
+        <v>0.551723898312126</v>
       </c>
       <c r="G18">
-        <v>0.3274642304002882</v>
+        <v>0.2927882997664213</v>
       </c>
       <c r="H18">
-        <v>0.07205609873918917</v>
+        <v>0.07197490180398347</v>
       </c>
       <c r="I18">
-        <v>0.001522489135256322</v>
+        <v>0.001725134125865502</v>
       </c>
       <c r="J18">
-        <v>0.3004190483844553</v>
+        <v>0.3100943215253835</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05916096744640065</v>
+        <v>0.1247522726668464</v>
       </c>
       <c r="M18">
-        <v>1.081757766791469</v>
+        <v>0.07430598142336819</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05927540619579119</v>
       </c>
       <c r="O18">
-        <v>0.2763825582022363</v>
+        <v>1.083892781975464</v>
       </c>
       <c r="P18">
-        <v>0.8420904643332818</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.270922173899422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2783235211795514</v>
+      </c>
+      <c r="R18">
+        <v>0.8379007417099587</v>
+      </c>
+      <c r="S18">
+        <v>1.188497885011216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.067510867653084</v>
+        <v>1.016552379753392</v>
       </c>
       <c r="C19">
-        <v>0.1578207442455266</v>
+        <v>0.1729305613512651</v>
       </c>
       <c r="D19">
-        <v>0.1792331721354969</v>
+        <v>0.1860613942536702</v>
       </c>
       <c r="E19">
-        <v>0.09325806950002047</v>
+        <v>0.09473383925596579</v>
       </c>
       <c r="F19">
-        <v>0.6389025719087797</v>
+        <v>0.6067294755549071</v>
       </c>
       <c r="G19">
-        <v>0.35740850225271</v>
+        <v>0.3185448953334813</v>
       </c>
       <c r="H19">
-        <v>0.02667112242554737</v>
+        <v>0.0266049352899671</v>
       </c>
       <c r="I19">
-        <v>0.001625633147846806</v>
+        <v>0.001864006269632235</v>
       </c>
       <c r="J19">
-        <v>0.316102017532188</v>
+        <v>0.3258465142809541</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08186240557067492</v>
+        <v>0.1301664491597787</v>
       </c>
       <c r="M19">
-        <v>1.0895124572599</v>
+        <v>0.07932555144661357</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08162904043866348</v>
       </c>
       <c r="O19">
-        <v>0.3308714848391077</v>
+        <v>1.092209172913499</v>
       </c>
       <c r="P19">
-        <v>0.8332519305701673</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.367241611139846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3332104055591927</v>
+      </c>
+      <c r="R19">
+        <v>0.8263091305319286</v>
+      </c>
+      <c r="S19">
+        <v>1.27572694417664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.129406071629631</v>
+        <v>1.066237671030933</v>
       </c>
       <c r="C20">
-        <v>0.1680725180221287</v>
+        <v>0.1885870683212119</v>
       </c>
       <c r="D20">
-        <v>0.2424131556400795</v>
+        <v>0.2519410001113727</v>
       </c>
       <c r="E20">
-        <v>0.1563300131874534</v>
+        <v>0.1584432908899984</v>
       </c>
       <c r="F20">
-        <v>0.7444064976594902</v>
+        <v>0.7019344972091517</v>
       </c>
       <c r="G20">
-        <v>0.410513742092327</v>
+        <v>0.3725098707588188</v>
       </c>
       <c r="H20">
-        <v>0.0001662721949102774</v>
+        <v>0.0001521726521884759</v>
       </c>
       <c r="I20">
-        <v>0.001613752780086131</v>
+        <v>0.001948161060265186</v>
       </c>
       <c r="J20">
-        <v>0.3413987604459408</v>
+        <v>0.3388006397672569</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1480714620610399</v>
+        <v>0.1363255687949199</v>
       </c>
       <c r="M20">
-        <v>1.156978932287444</v>
+        <v>0.0886659847198672</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1469890062142127</v>
       </c>
       <c r="O20">
-        <v>0.438765637483705</v>
+        <v>1.158099851502925</v>
       </c>
       <c r="P20">
-        <v>0.8134459056387406</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.532919624372653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4415517889289831</v>
+      </c>
+      <c r="R20">
+        <v>0.8039832528213076</v>
+      </c>
+      <c r="S20">
+        <v>1.415199696009921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.273082470046745</v>
+        <v>1.187092013591524</v>
       </c>
       <c r="C21">
-        <v>0.1840369716470462</v>
+        <v>0.2073712405438641</v>
       </c>
       <c r="D21">
-        <v>0.2735182643837106</v>
+        <v>0.2889960908329385</v>
       </c>
       <c r="E21">
-        <v>0.1767724135799575</v>
+        <v>0.1800199954788155</v>
       </c>
       <c r="F21">
-        <v>0.789432373076302</v>
+        <v>0.7240873352908039</v>
       </c>
       <c r="G21">
-        <v>0.4322756965377863</v>
+        <v>0.4500717256177325</v>
       </c>
       <c r="H21">
-        <v>6.873465795664835E-05</v>
+        <v>6.889102237361833E-05</v>
       </c>
       <c r="I21">
-        <v>0.001767921454634447</v>
+        <v>0.002197073480805223</v>
       </c>
       <c r="J21">
-        <v>0.3471596521526834</v>
+        <v>0.2779306795094882</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1669343957571812</v>
+        <v>0.1296489771309464</v>
       </c>
       <c r="M21">
-        <v>1.301721625955111</v>
+        <v>0.09225418126014873</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1648572690253403</v>
       </c>
       <c r="O21">
-        <v>0.5006240615389856</v>
+        <v>1.288162161109739</v>
       </c>
       <c r="P21">
-        <v>0.7810656570198127</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.591419396806003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5016945444912366</v>
+      </c>
+      <c r="R21">
+        <v>0.7785334615638959</v>
+      </c>
+      <c r="S21">
+        <v>1.414313341625814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.368755470485183</v>
+        <v>1.267131963975885</v>
       </c>
       <c r="C22">
-        <v>0.1929879549455222</v>
+        <v>0.2175713954616185</v>
       </c>
       <c r="D22">
-        <v>0.290730474842988</v>
+        <v>0.3104278504976605</v>
       </c>
       <c r="E22">
-        <v>0.1867968441162233</v>
+        <v>0.1908675359886232</v>
       </c>
       <c r="F22">
-        <v>0.8161431860660926</v>
+        <v>0.7347444295630083</v>
       </c>
       <c r="G22">
-        <v>0.4457873998153161</v>
+        <v>0.5086064067866403</v>
       </c>
       <c r="H22">
-        <v>0.0003029256649049739</v>
+        <v>0.0002796483955673779</v>
       </c>
       <c r="I22">
-        <v>0.001752221814386168</v>
+        <v>0.002128741421680402</v>
       </c>
       <c r="J22">
-        <v>0.3506251116703822</v>
+        <v>0.2440184623504997</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1754309260961051</v>
+        <v>0.1253672069028884</v>
       </c>
       <c r="M22">
-        <v>1.394999999472105</v>
+        <v>0.09469084295349006</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.17272036984793</v>
       </c>
       <c r="O22">
-        <v>0.5362863238384392</v>
+        <v>1.370625988380795</v>
       </c>
       <c r="P22">
-        <v>0.7607157534147486</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.627510171974535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5360162511904036</v>
+      </c>
+      <c r="R22">
+        <v>0.7633676785118269</v>
+      </c>
+      <c r="S22">
+        <v>1.408690295038667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.320492993211957</v>
+        <v>1.22820253748867</v>
       </c>
       <c r="C23">
-        <v>0.1869552337406049</v>
+        <v>0.2111600457692617</v>
       </c>
       <c r="D23">
-        <v>0.2812181683685822</v>
+        <v>0.2981238564253914</v>
       </c>
       <c r="E23">
-        <v>0.1813967363512248</v>
+        <v>0.184902668291798</v>
       </c>
       <c r="F23">
-        <v>0.8032931292303687</v>
+        <v>0.7323157461961145</v>
       </c>
       <c r="G23">
-        <v>0.4397651651969312</v>
+        <v>0.4708529272125332</v>
       </c>
       <c r="H23">
-        <v>0.000158695555162458</v>
+        <v>0.0001519721277181141</v>
       </c>
       <c r="I23">
-        <v>0.001443816804231446</v>
+        <v>0.001792729459035414</v>
       </c>
       <c r="J23">
-        <v>0.3493796150279564</v>
+        <v>0.267111825791126</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1709708268158892</v>
+        <v>0.1281823988937774</v>
       </c>
       <c r="M23">
-        <v>1.345073911273374</v>
+        <v>0.09409115609238583</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1686421024117237</v>
       </c>
       <c r="O23">
-        <v>0.517131478805382</v>
+        <v>1.328149148133463</v>
       </c>
       <c r="P23">
-        <v>0.7713957369078042</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.612034482915675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5178286151756168</v>
+      </c>
+      <c r="R23">
+        <v>0.7706436980767322</v>
+      </c>
+      <c r="S23">
+        <v>1.420229826432745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.13283209939641</v>
+        <v>1.069253067149361</v>
       </c>
       <c r="C24">
-        <v>0.1663305910942654</v>
+        <v>0.1867910238398309</v>
       </c>
       <c r="D24">
-        <v>0.2458668579319863</v>
+        <v>0.255472149677729</v>
       </c>
       <c r="E24">
-        <v>0.1610663610861778</v>
+        <v>0.1632111338702487</v>
       </c>
       <c r="F24">
-        <v>0.7533814160426928</v>
+        <v>0.7105157818612184</v>
       </c>
       <c r="G24">
-        <v>0.4158246855256493</v>
+        <v>0.3769592476828905</v>
       </c>
       <c r="H24">
-        <v>3.726854646712852E-05</v>
+        <v>2.501831626555706E-05</v>
       </c>
       <c r="I24">
-        <v>0.001122875162590908</v>
+        <v>0.001359466597329551</v>
       </c>
       <c r="J24">
-        <v>0.3441705075656358</v>
+        <v>0.3419136983184501</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1539468829308888</v>
+        <v>0.1375838510429297</v>
       </c>
       <c r="M24">
-        <v>1.156303504110952</v>
+        <v>0.08983855580499522</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1528193386715913</v>
       </c>
       <c r="O24">
-        <v>0.4448929203783649</v>
+        <v>1.157566475395726</v>
       </c>
       <c r="P24">
-        <v>0.8133295923805388</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.549980645071287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4477341463042706</v>
+      </c>
+      <c r="R24">
+        <v>0.8031553441259796</v>
+      </c>
+      <c r="S24">
+        <v>1.431155436759852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9297338234401025</v>
+        <v>0.8845412062872811</v>
       </c>
       <c r="C25">
-        <v>0.1443900148543378</v>
+        <v>0.1560088571193177</v>
       </c>
       <c r="D25">
-        <v>0.2080112321675784</v>
+        <v>0.2154375316304566</v>
       </c>
       <c r="E25">
-        <v>0.1391993723932714</v>
+        <v>0.1411830497302589</v>
       </c>
       <c r="F25">
-        <v>0.7018010948076494</v>
+        <v>0.6677171107006359</v>
       </c>
       <c r="G25">
-        <v>0.3917331007841014</v>
+        <v>0.3533409980918094</v>
       </c>
       <c r="H25">
-        <v>0.0007420185154862757</v>
+        <v>0.0006359160903928185</v>
       </c>
       <c r="I25">
-        <v>0.00153481954055934</v>
+        <v>0.001490273308673018</v>
       </c>
       <c r="J25">
-        <v>0.3396334459069053</v>
+        <v>0.344787843809172</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1355338856831949</v>
+        <v>0.1455248616500864</v>
       </c>
       <c r="M25">
-        <v>0.9527183215076889</v>
+        <v>0.08353799743318113</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1351562313446948</v>
       </c>
       <c r="O25">
-        <v>0.3671521740186421</v>
+        <v>0.955217826280176</v>
       </c>
       <c r="P25">
-        <v>0.8611090076201258</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.48895759546707</v>
+        <v>0.3695689244683322</v>
+      </c>
+      <c r="R25">
+        <v>0.844646491125669</v>
+      </c>
+      <c r="S25">
+        <v>1.391669246960291</v>
       </c>
     </row>
   </sheetData>
